--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF010_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF010_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF010_休日出勤時間申請\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -457,6 +457,24 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -481,27 +499,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="2"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="4"/>
@@ -547,7 +547,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -566,7 +566,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -620,7 +620,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -660,7 +660,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -700,7 +700,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -738,16 +738,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -756,7 +753,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -794,16 +791,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -819,7 +806,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -857,16 +844,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -898,7 +875,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +894,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -971,7 +948,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1011,7 +988,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1051,7 +1028,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1089,16 +1066,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1107,7 +1081,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1145,16 +1119,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1163,7 +1134,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1201,16 +1172,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1235,7 +1203,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1222,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1308,7 +1276,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1348,7 +1316,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1388,7 +1356,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1426,16 +1394,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1444,7 +1409,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1482,16 +1447,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1507,7 +1462,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1545,16 +1500,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1579,7 +1531,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1550,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1652,7 +1604,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1692,7 +1644,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1732,7 +1684,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1770,16 +1722,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1788,7 +1737,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1826,16 +1775,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1844,7 +1790,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1882,16 +1828,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1916,7 +1859,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1878,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1989,7 +1932,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2029,7 +1972,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2069,7 +2012,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2107,16 +2050,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2125,7 +2065,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2163,16 +2103,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2188,7 +2118,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2226,16 +2156,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2633,9 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:K27"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
   <cols>
@@ -2670,10 +2595,10 @@
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2684,10 +2609,10 @@
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2711,8 +2636,8 @@
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -2725,8 +2650,8 @@
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -2795,8 +2720,8 @@
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
@@ -2809,8 +2734,8 @@
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
@@ -2893,8 +2818,8 @@
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="F19" s="10"/>
@@ -2907,8 +2832,8 @@
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="13"/>
@@ -2977,8 +2902,8 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="10"/>
@@ -3005,16 +2930,16 @@
     </row>
     <row r="27" spans="1:12" ht="90" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="3.75" customHeight="1">
@@ -3047,16 +2972,16 @@
     </row>
     <row r="30" spans="1:12" ht="74.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="3.75" customHeight="1">
@@ -3089,16 +3014,16 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="3.75" customHeight="1">
@@ -3308,6 +3233,15 @@
     <row r="57" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
@@ -3323,15 +3257,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF010_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF010_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF010_休日出勤時間申請\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A805BAD-DFA9-4294-9BF0-F47E31A08D8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20100" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="休日出勤申請" sheetId="29" r:id="rId1"/>
@@ -72,7 +73,7 @@
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentManualCount="2"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -122,7 +123,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="源ノ角ゴシック JP Normal"/>
+      <name val="源ノ角ゴシック Normal"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -352,6 +353,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +374,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -373,16 +389,40 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,6 +440,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -424,6 +479,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -436,77 +500,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2 2" xfId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,7 +548,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -566,7 +567,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -609,8 +610,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -620,7 +621,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -660,7 +661,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -700,7 +701,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -738,13 +739,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -753,7 +757,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -791,12 +795,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -806,7 +820,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -844,12 +858,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -875,7 +899,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -894,7 +918,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -937,8 +961,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -948,7 +972,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -988,7 +1012,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1028,7 +1052,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1066,13 +1090,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1081,7 +1108,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1119,13 +1146,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1134,7 +1164,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1172,13 +1202,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1203,7 +1236,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1255,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1265,8 +1298,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1276,7 +1309,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1316,7 +1349,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1356,7 +1389,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1394,13 +1427,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1409,7 +1445,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1447,12 +1483,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1462,7 +1508,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1500,13 +1546,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1531,7 +1580,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1599,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1593,8 +1642,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1604,7 +1653,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1644,7 +1693,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1684,7 +1733,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1722,13 +1771,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1737,7 +1789,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1775,13 +1827,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1790,7 +1845,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1828,13 +1883,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1859,7 +1917,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1936,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1921,8 +1979,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1932,7 +1990,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1972,7 +2030,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2012,7 +2070,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2050,13 +2108,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2065,7 +2126,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2103,12 +2164,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2118,7 +2189,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2156,13 +2227,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2557,12 +2631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
     <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
@@ -2594,643 +2668,643 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="3.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="90" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="3.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="3.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="74.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="3.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="3.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="3.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-    </row>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="50" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="51" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="52" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="53" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="54" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="55" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="56" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="57" s="2" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="B23:C23"/>
